--- a/data-raw/Resultat.xlsx
+++ b/data-raw/Resultat.xlsx
@@ -8,7 +8,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="107">
   <si>
     <t>VET - Résultat (code)</t>
   </si>
@@ -68,6 +68,12 @@
   </si>
   <si>
     <t>Admis Ech.Inter</t>
+  </si>
+  <si>
+    <t>AENJ</t>
+  </si>
+  <si>
+    <t>Att. Enjambem.</t>
   </si>
   <si>
     <t>AJ</t>
@@ -439,7 +445,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView rightToLeft="0" workbookViewId="0"/>
   </sheetViews>
@@ -631,15 +637,15 @@
         <v>42</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B25" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -647,12 +653,12 @@
         <v>45</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B27" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>47</v>
@@ -679,36 +685,36 @@
         <v>52</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B31" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B32" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B33" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B34" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>11</v>
@@ -716,15 +722,15 @@
     </row>
     <row r="35" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B35" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B36" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>59</v>
@@ -879,12 +885,12 @@
         <v>96</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="56" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B56" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>98</v>
@@ -914,7 +920,15 @@
         <v>104</v>
       </c>
     </row>
-    <row r="60" s="1" customFormat="1" ht="28.7982" customHeight="1"/>
+    <row r="60" s="1" customFormat="1" ht="19.7321" customHeight="1">
+      <c r="B60" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="61" s="1" customFormat="1" ht="28.7982" customHeight="1"/>
   </sheetData>
   <pageSetup paperSize="9" scale="100" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>

--- a/data-raw/Resultat.xlsx
+++ b/data-raw/Resultat.xlsx
@@ -8,7 +8,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="108">
   <si>
     <t>VET - Résultat (code)</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>Admissible</t>
+  </si>
+  <si>
+    <t>ADMP</t>
   </si>
   <si>
     <t>ADR</t>
@@ -445,7 +448,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView rightToLeft="0" workbookViewId="0"/>
   </sheetViews>
@@ -533,119 +536,119 @@
         <v>16</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B22" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B24" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -653,12 +656,12 @@
         <v>45</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B27" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>47</v>
@@ -669,31 +672,31 @@
         <v>48</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B29" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B30" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B31" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -701,7 +704,7 @@
         <v>55</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -709,7 +712,7 @@
         <v>56</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -717,7 +720,7 @@
         <v>57</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -733,7 +736,7 @@
         <v>59</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -741,156 +744,156 @@
         <v>60</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B38" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="39" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B39" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B40" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B41" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="42" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B42" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="43" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B43" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="44" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B44" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="45" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B45" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="46" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B46" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="47" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B47" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="48" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B48" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="49" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B49" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="50" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B50" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="51" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B51" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="52" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B52" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="53" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B53" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="54" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B54" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="55" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B55" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="56" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B56" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>98</v>
@@ -901,34 +904,42 @@
         <v>99</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B58" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="59" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B59" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="60" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B60" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C60" s="4" t="s">
+    </row>
+    <row r="61" s="1" customFormat="1" ht="19.7321" customHeight="1">
+      <c r="B61" s="3" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="61" s="1" customFormat="1" ht="28.7982" customHeight="1"/>
+      <c r="C61" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="62" s="1" customFormat="1" ht="28.7982" customHeight="1"/>
   </sheetData>
   <pageSetup paperSize="9" scale="100" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>

--- a/data-raw/Resultat.xlsx
+++ b/data-raw/Resultat.xlsx
@@ -449,9 +449,6 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C62"/>
-  <sheetViews>
-    <sheetView rightToLeft="0" workbookViewId="0"/>
-  </sheetViews>
   <cols>
     <col min="1" max="1" width="1.0008" customWidth="1"/>
     <col min="2" max="3" width="10.7163133333333" customWidth="1"/>

--- a/data-raw/Resultat.xlsx
+++ b/data-raw/Resultat.xlsx
@@ -8,7 +8,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="110">
   <si>
     <t>VET - Résultat (code)</t>
   </si>
@@ -49,6 +49,9 @@
     <t>ADJ</t>
   </si>
   <si>
+    <t>Admis par Jury</t>
+  </si>
+  <si>
     <t>ADM</t>
   </si>
   <si>
@@ -59,6 +62,9 @@
   </si>
   <si>
     <t>ADMP</t>
+  </si>
+  <si>
+    <t>ADM à poursuiv</t>
   </si>
   <si>
     <t>ADR</t>
@@ -509,12 +515,12 @@
         <v>12</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B9" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>11</v>
@@ -522,191 +528,191 @@
     </row>
     <row r="10" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B10" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B11" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B12" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B13" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B14" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B15" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B16" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B17" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B18" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B19" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B20" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B21" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B22" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B23" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B24" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B25" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B26" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B27" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B28" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B29" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B30" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B31" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B32" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B33" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>11</v>
@@ -714,15 +720,15 @@
     </row>
     <row r="34" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B34" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B35" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>11</v>
@@ -730,7 +736,7 @@
     </row>
     <row r="36" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B36" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>11</v>
@@ -738,202 +744,202 @@
     </row>
     <row r="37" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B37" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B38" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B39" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B40" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B41" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B42" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B43" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B44" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B45" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B46" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B47" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B48" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B49" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B50" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B51" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B52" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B53" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="54" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B54" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B55" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B56" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B57" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="58" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B58" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="59" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B59" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="60" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B60" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="61" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B61" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="62" s="1" customFormat="1" ht="28.7982" customHeight="1"/>
